--- a/projects/3/home_work/users.xlsx
+++ b/projects/3/home_work/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogdan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\projects\3\home_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F42E96-EB21-4666-9129-9A0AD95EAB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C9C3B0-D6EB-4FD6-92BA-67158D5049CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -10708,7 +10708,7 @@
   <dimension ref="A1:P2141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
